--- a/calculations/types-of-response.xlsx
+++ b/calculations/types-of-response.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\web\ЗАКАЗЫ\АЙФОРДЖИ\project-pattern-test\Расчеты\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\web\ЗАКАЗЫ\АЙФОРДЖИ\project-pattern-test\calculations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66E08C75-9414-4F8C-8771-8100A9E9BB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9448741-949D-4C51-87CE-692513CE1167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{3B27096E-33E2-41D8-931E-850C950C44DA}"/>
   </bookViews>
@@ -398,6 +398,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -406,21 +421,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -748,7 +748,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="A1:E8"/>
+      <selection activeCell="C9" sqref="C8:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6640625" defaultRowHeight="52.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -760,24 +760,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="12" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="11" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
@@ -785,99 +785,99 @@
       <c r="A3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14"/>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14"/>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -891,8 +891,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -906,8 +906,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -917,8 +917,8 @@
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="8" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -932,8 +932,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="8" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C13" s="3"/>
@@ -941,8 +941,8 @@
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="8" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C14" s="3"/>
@@ -950,8 +950,8 @@
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C15" s="3"/>
